--- a/biology/Neurosciences/Matthew_Nagle/Matthew_Nagle.xlsx
+++ b/biology/Neurosciences/Matthew_Nagle/Matthew_Nagle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Matthew Nagle (16 octobre 1979 - 24 juillet 2007) fut le premier humain à utiliser une interface neuronale directe pour restaurer des fonctionnalités altérées à la suite d'une paralysie. Il était tétraplégique C4, paralysé à partir du cou lors d'une attaque à l'arme blanche.
 </t>
@@ -511,7 +523,9 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancienne star du football à la Weymouth High School (promo 1998), Nagle quittait le feu d'artifice annuel de la ville près de Wessagussett Beach le 3 juillet 2001 quand une bagarre a éclaté entre deux groupes. En tentant de porter secours à l'un de ses amis pris à partie, il a été poignardé au niveau de la quatrième vertèbre cervicale et la moelle épinière a été sectionnée. Tétraplégique, il est paralysé depuis le cou jusqu'au pied. Il est assisté par une machine pour respirer. Il est devenu la première personne à utiliser une interface neuronale pour restaurer ses fonctions motrices perdues à cause de sa paralysie. 
 </t>
@@ -542,10 +556,12 @@
           <t>Implant neuronal</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La société Cyberkinetics, en collaboration avec le professeur John Donoghue du département des neurosciences de l'université Brown dans l’État de Rhode Island, a construit l'interface nommée BrainGate en 2003. Matt Nagle a accepté de participer aux essais cliniques de BrainGate avec l'espoir que les découvertes de la médecine moderne pourront l'aider.
-Le système a été implanté le 22 juin 2004 par un neurochirurgien du nom de Gerhrad Friesh. Le dispositif de 100 électrodes, aussi gros qu'un petit cachet et d'une épaisseur d'environ 1 millimètre, a été placé sur la surface de son cerveau, au-dessus de la région du cortex moteur commandant sa main et son bras dominant. Un lien placé à l'extérieur de son crâne permet de relier le dispositif à un ordinateur. L'ordinateur a alors été programmé pour identifier les modèles de pensée de Matthew Nagle et pour les associer aux mouvements qu'il essayait de réaliser[1].
+Le système a été implanté le 22 juin 2004 par un neurochirurgien du nom de Gerhrad Friesh. Le dispositif de 100 électrodes, aussi gros qu'un petit cachet et d'une épaisseur d'environ 1 millimètre, a été placé sur la surface de son cerveau, au-dessus de la région du cortex moteur commandant sa main et son bras dominant. Un lien placé à l'extérieur de son crâne permet de relier le dispositif à un ordinateur. L'ordinateur a alors été programmé pour identifier les modèles de pensée de Matthew Nagle et pour les associer aux mouvements qu'il essayait de réaliser.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Réussite technologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès l'implantation, Nagle a pu contrôler un curseur de souris, commander la télévision (changer les chaînes, allumer/éteindre...), lire ses courriels, ainsi que toutes les actions basiques réalisables par pression sur un bouton. Il a pu dessiner sur l'écran (bien que le contrôle du curseur ne soit pas précis). Il a aussi pu contrôler une prothèse externe de main (ouverture et fermeture des doigts).
 Le résultat de cette étude a été publié dans le journal britannique scientifique Nature. Comme défini par le règlement de la FDA ainsi que les protocoles d'étude, l'implant a été retiré du cerveau de Matt environ un an après sa mise en place.
-Matthew Nagle est décédé le 23 juillet 2007 à Boston (Massachusetts) à l'âge de 27 ans[2].
+Matthew Nagle est décédé le 23 juillet 2007 à Boston (Massachusetts) à l'âge de 27 ans.
 </t>
         </is>
       </c>
